--- a/Interview/demo.xlsx
+++ b/Interview/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A6F4DA34-BA1A-4FF1-9ABD-8818071F3CF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AE54682-40BC-46CE-91DB-25AFED8D8676}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,13 +76,13 @@
     <t>runMode</t>
   </si>
   <si>
-    <t>amit.inamdar84@gmail.com</t>
-  </si>
-  <si>
-    <t>Screener_3007</t>
-  </si>
-  <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Screener</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,13 +478,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
